--- a/Resumen.xlsx
+++ b/Resumen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usmcl-my.sharepoint.com/personal/diego_llanoso_sansano_usm_cl/Documents/Universidad/Memoria/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{5A767B2B-D4D3-40CE-8DD5-58EBE80FC925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51673A4D-41AC-4F5D-8359-2201C13D0E02}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{5A767B2B-D4D3-40CE-8DD5-58EBE80FC925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97A212B3-A318-4520-8442-8F498E613F86}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="19" activeTab="24" xr2:uid="{4D0F7537-181F-442B-BE8C-F3D78DF94A83}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{4D0F7537-181F-442B-BE8C-F3D78DF94A83}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -5022,15 +5022,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>305578</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>67453</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>38281</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5054,7 +5054,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5400675" y="2171700"/>
+          <a:off x="5162550" y="2362200"/>
           <a:ext cx="5572903" cy="1295581"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -34608,7 +34608,7 @@
   <dimension ref="A1:CC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D3" sqref="D3:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37014,7 +37014,7 @@
   <dimension ref="A1:CC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49043,8 +49043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC24E55-D217-46D9-8965-36D57C50173B}">
   <dimension ref="A1:CC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58666,7 +58666,7 @@
   <dimension ref="A1:CC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61071,8 +61071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AF4091-7C85-4624-9E87-E42DEFA06CD5}">
   <dimension ref="A1:CC10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67269,7 +67269,7 @@
   <dimension ref="A1:CC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
